--- a/results/Supporting information/Table S5. Field germination models results.xlsx
+++ b/results/Supporting information/Table S5. Field germination models results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/Germination_phenology/results/Supporting information/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_AB97BEFAB7998DED9993F4AC24A547559A9DF0ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97892BFA-8E8F-4968-B009-B6CEB663DE26}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="11_AB97BEFAB7998DED9993F4AC24A547559A9DF0ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85155133-A53E-4A03-819C-97111803DC62}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>p.value</t>
   </si>
@@ -81,9 +81,6 @@
     <t>statistic</t>
   </si>
   <si>
-    <t>SPRING</t>
-  </si>
-  <si>
     <t>2.30e+ 0</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>7.57e- 1</t>
   </si>
   <si>
-    <t>AUTUMN</t>
-  </si>
-  <si>
     <t>4.49e- 1</t>
   </si>
   <si>
@@ -154,6 +148,15 @@
   </si>
   <si>
     <t>microhabitat_Snowbed</t>
+  </si>
+  <si>
+    <t>EARLY SEASON</t>
+  </si>
+  <si>
+    <t>LATE SEASON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S5. Field germination model results. </t>
   </si>
 </sst>
 </file>
@@ -177,8 +180,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -215,22 +218,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +581,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,444 +600,471 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
         <v>-20.8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4974</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-4.1900000000000001E-3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.997</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-0.41799999999999998</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-1.1200000000000001</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.437</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1">
-        <v>-18.8</v>
       </c>
       <c r="D5" s="1">
         <v>4974</v>
       </c>
       <c r="E5" s="1">
-        <v>-3.7699999999999999E-3</v>
+        <v>-4.1900000000000001E-3</v>
       </c>
       <c r="F5" s="1">
         <v>0.997</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-0.41799999999999998</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.437</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-18.8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4974</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-3.7699999999999999E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-3.64</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-4.75</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.0099999999999998E-6</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H8" s="1">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="1">
-        <v>0.85399999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-3.64</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>-4.75</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2.0099999999999998E-6</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="J8" s="1">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-1.18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-2.4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1.68</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-3.88</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.05E-4</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="J10" s="1">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3017</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-6.6600000000000001E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-2.2600000000000002E-16</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="I11" s="3">
+        <v>-2.2200000000000001E-16</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-2.36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-3.03</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="1">
-        <v>0.52300000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-1.18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>-2.4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H12" s="1">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.379</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.377</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="1">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-1.68</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.432</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-3.88</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1.05E-4</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="J13" s="1">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.376</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4.3099999999999997E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.377</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="5">
-        <v>2.7999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-20.100000000000001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3017</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-6.6600000000000001E-3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.995</v>
-      </c>
-      <c r="G9" s="6">
-        <v>-2.2600000000000002E-16</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="I9" s="2">
-        <v>-2.2200000000000001E-16</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-2.36</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-3.03</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2.4099999999999998E-3</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.34799999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.379</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.68</v>
-      </c>
-      <c r="F11" s="1">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.377</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.376</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="H15" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-0.91400000000000003</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-2.39</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="1">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="5">
-        <v>4.3099999999999997E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.377</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2.19</v>
-      </c>
-      <c r="F13" s="5">
-        <v>2.8199999999999999E-2</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.44900000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-0.91400000000000003</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-2.39</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1.6799999999999999E-2</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="H16" s="1">
         <v>0.45400000000000001</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="I16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="1">
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B1:F1"/>
+  <mergeCells count="3">
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>